--- a/Cahen-Fourot_Magalhaes_2023_Accumulation-metabolism_nexus_SER_replication_data.xlsx
+++ b/Cahen-Fourot_Magalhaes_2023_Accumulation-metabolism_nexus_SER_replication_data.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Licensing</t>
   </si>
   <si>
-    <t xml:space="preserve">The data constructed by Louison Cahen-Fourot and Nelo Magalhães and the code are shared under a CC-BY-NC-SA 4.0 license. Copyright holders for the code: Louison Cahen-Fourot and Nelo Magalhães. Year: 2023. The raw data from other original providers directly included in the dataset of the replication kit (e.g. Eora, OECDStat, Ameco, Penn World Tables), are shared under the license terms of these providers. For Eora, see: https://worldmrio.com/licensing.jsp. For OECDStat, see: https://www.oecd.org/termsandconditions/. For Ameco, see: https://commission.europa.eu/legal-notice_en#copyright-notice. For Penn World Tables, see: https://www.rug.nl/ggdc/productivity/pwt/?lang=en.</t>
+    <t xml:space="preserve">The data constructed by Louison Cahen-Fourot and Nelo Magalhães are shared under a CC-BY 4.0 license. The code is shared under a MIT license. Copyright holders for the code: Louison Cahen-Fourot and Nelo Magalhães. Year: 2023. The raw data from other original providers directly included in the dataset of the replication kit (e.g. Eora, OECDStat, Ameco, Penn World Tables), are shared under the license terms of these providers, which prevail over CC-BY 4.0. For Eora, see: https://worldmrio.com/licensing.jsp. For OECDStat, see: https://www.oecd.org/termsandconditions/. For Ameco, see: https://commission.europa.eu/legal-notice_en#copyright-notice. For Penn World Tables, see: https://www.rug.nl/ggdc/productivity/pwt/?lang=en.</t>
   </si>
   <si>
     <t xml:space="preserve">Contact</t>
